--- a/data/bulbtemp.xlsx
+++ b/data/bulbtemp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40131ca68081fcd2/Dokumente/Master/Field course/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrick/Documents/Field_Course_Urban_Climate/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="214" documentId="8_{C102BE99-CD72-4041-9633-BF9C4DED6774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5A420B0-2C61-4053-9D16-E6EB13FB5719}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AF0367-17CC-5844-AFC6-340F1E60DF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{0AF947B6-3870-473C-9554-F8A2FDF21CC4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20720" windowHeight="13280" xr2:uid="{0AF947B6-3870-473C-9554-F8A2FDF21CC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,9 +77,6 @@
     <t>Victoria Platz</t>
   </si>
   <si>
-    <t>Kornhaus Bridge</t>
-  </si>
-  <si>
     <t>Kornhaus</t>
   </si>
   <si>
@@ -92,10 +89,13 @@
     <t>Rathausplatz</t>
   </si>
   <si>
-    <t>BKW Parc</t>
-  </si>
-  <si>
     <t>Device</t>
+  </si>
+  <si>
+    <t>Kornhaus Brücke</t>
+  </si>
+  <si>
+    <t>BKW Park</t>
   </si>
 </sst>
 </file>
@@ -136,7 +136,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -151,12 +151,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -454,16 +450,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AAC2A1-09AC-4A04-AFEB-62F08DFC6513}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -496,7 +494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>82</v>
       </c>
@@ -528,10 +526,10 @@
         <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>84</v>
       </c>
@@ -563,10 +561,10 @@
         <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>82</v>
       </c>
@@ -601,7 +599,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>84</v>
       </c>
@@ -636,7 +634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>82</v>
       </c>
@@ -668,10 +666,10 @@
         <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>84</v>
       </c>
@@ -703,10 +701,10 @@
         <v>10</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>82</v>
       </c>
@@ -738,10 +736,10 @@
         <v>10</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>84</v>
       </c>
@@ -773,10 +771,10 @@
         <v>10</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>82</v>
       </c>
@@ -808,10 +806,10 @@
         <v>11</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>84</v>
       </c>
@@ -843,10 +841,10 @@
         <v>11</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>82</v>
       </c>
@@ -878,10 +876,10 @@
         <v>11</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>84</v>
       </c>
@@ -913,10 +911,10 @@
         <v>11</v>
       </c>
       <c r="K13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>82</v>
       </c>
@@ -948,10 +946,10 @@
         <v>10</v>
       </c>
       <c r="K14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>84</v>
       </c>
@@ -983,7 +981,7 @@
         <v>10</v>
       </c>
       <c r="K15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
